--- a/DataInput/CandidateInfo.xlsx
+++ b/DataInput/CandidateInfo.xlsx
@@ -1,20 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://opteamix-my.sharepoint.com/personal/ssatish_opteamix_com/Documents/Documents/UiPath/Dispatcher-Offerletter-Generator/DataInput/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="44" documentId="13_ncr:1_{0A9BDB1F-976A-44A2-A646-7D4643328D58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{08DC3C76-3171-4D74-AF16-EE69E61D2B3C}"/>
+  <xr:revisionPtr revIDLastSave="46" documentId="13_ncr:1_{0A9BDB1F-976A-44A2-A646-7D4643328D58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B210488B-8B18-4DB7-9722-E47A7E5EF3AF}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{57A7E307-140A-483A-BD81-E14EABD2E01B}"/>
   </bookViews>
   <sheets>
     <sheet name="Status" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Status!$A$1:$H$20</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -634,10 +637,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CDA52DA-FBAF-4F7D-959A-277BC82EA608}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+      <selection activeCell="I27" sqref="I27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -807,7 +811,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -911,7 +915,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -937,7 +941,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -963,7 +967,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -1039,7 +1043,7 @@
       </c>
       <c r="H15" s="4"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -1117,7 +1121,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -1143,7 +1147,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -1170,6 +1174,13 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:H20" xr:uid="{0CDA52DA-FBAF-4F7D-959A-277BC82EA608}">
+    <filterColumn colId="6">
+      <filters>
+        <filter val="Hired"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
